--- a/src/main/resources/accessExp/HL7Versions.xlsx
+++ b/src/main/resources/accessExp/HL7Versions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27217"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="3340" windowWidth="23900" windowHeight="14540"/>
+    <workbookView xWindow="7880" yWindow="4200" windowWidth="23900" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="HL7Versions" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="HL7Versions">HL7Versions!$A$1:$O$30</definedName>
+    <definedName name="HL7Versions">HL7Versions!$A$1:$O$31</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="133">
   <si>
     <t>version_id</t>
   </si>
@@ -203,6 +203,18 @@
     <t>d:\temp\HL7-xml v2.8</t>
   </si>
   <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>std29</t>
+  </si>
+  <si>
+    <t>v29</t>
+  </si>
+  <si>
     <t>2.2 DE</t>
   </si>
   <si>
@@ -288,6 +300,9 @@
   </si>
   <si>
     <t>v282</t>
+  </si>
+  <si>
+    <t>d:\temp\HL7-xml v2.8.2</t>
   </si>
   <si>
     <t>2.1 DE</t>
@@ -755,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -763,23 +778,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1282,31 +1280,34 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
       </c>
       <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
         <v>58</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="1">
+        <v>42440</v>
+      </c>
+      <c r="F12" t="s">
         <v>59</v>
-      </c>
-      <c r="F12" t="s">
-        <v>60</v>
       </c>
       <c r="G12" t="s">
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
@@ -1315,39 +1316,39 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
         <v>62</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>63</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="1">
-        <v>39404</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
         <v>65</v>
       </c>
-      <c r="H13" t="s">
-        <v>66</v>
-      </c>
       <c r="I13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -1356,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O13" t="b">
         <v>0</v>
@@ -1364,34 +1365,31 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
         <v>67</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
       </c>
       <c r="D14" t="s">
         <v>68</v>
       </c>
       <c r="E14" s="1">
-        <v>39268</v>
+        <v>39404</v>
       </c>
       <c r="F14" t="s">
         <v>69</v>
       </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
       <c r="H14" t="s">
         <v>70</v>
       </c>
       <c r="I14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -1400,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O14" t="b">
         <v>0</v>
@@ -1408,34 +1406,34 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E15" s="1">
-        <v>39207</v>
+        <v>39268</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I15">
         <v>6</v>
       </c>
       <c r="J15">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -1446,16 +1444,13 @@
       <c r="M15">
         <v>6</v>
       </c>
-      <c r="N15" t="s">
-        <v>74</v>
-      </c>
       <c r="O15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
         <v>75</v>
@@ -1466,6 +1461,9 @@
       <c r="D16" t="s">
         <v>20</v>
       </c>
+      <c r="E16" s="1">
+        <v>39207</v>
+      </c>
       <c r="F16" t="s">
         <v>76</v>
       </c>
@@ -1476,10 +1474,10 @@
         <v>77</v>
       </c>
       <c r="I16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J16">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
@@ -1488,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N16" t="s">
         <v>78</v>
@@ -1499,7 +1497,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
         <v>79</v>
@@ -1520,10 +1518,10 @@
         <v>81</v>
       </c>
       <c r="I17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J17">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
@@ -1532,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N17" t="s">
         <v>82</v>
@@ -1543,7 +1541,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
         <v>83</v>
@@ -1564,10 +1562,10 @@
         <v>85</v>
       </c>
       <c r="I18">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="J18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
@@ -1578,81 +1576,90 @@
       <c r="M18">
         <v>9</v>
       </c>
+      <c r="N18" t="s">
+        <v>86</v>
+      </c>
       <c r="O18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="K19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="N19" t="s">
+        <v>90</v>
       </c>
       <c r="O19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O20" t="b">
         <v>0</v>
@@ -1660,28 +1667,28 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J21">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
@@ -1690,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O21" t="b">
         <v>0</v>
@@ -1698,28 +1705,28 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
@@ -1728,10 +1735,7 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="O22" t="b">
         <v>0</v>
@@ -1739,19 +1743,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="1">
-        <v>40894</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s">
         <v>101</v>
@@ -1763,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="J23">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
@@ -1774,34 +1775,40 @@
       <c r="M23">
         <v>5</v>
       </c>
+      <c r="N23" t="s">
+        <v>103</v>
+      </c>
       <c r="O23" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="E24" s="1">
+        <v>40894</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I24">
         <v>5</v>
       </c>
       <c r="J24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -1818,37 +1825,37 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>610</v>
+        <v>540</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I25">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="J25">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="O25" t="b">
         <v>0</v>
@@ -1856,43 +1863,37 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="1">
-        <v>39609</v>
+        <v>68</v>
       </c>
       <c r="F26" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="H26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I26">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="J26">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="O26" t="b">
         <v>0</v>
@@ -1900,31 +1901,34 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E27" s="1">
-        <v>41830</v>
+        <v>39609</v>
       </c>
       <c r="F27" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I27">
         <v>6</v>
       </c>
       <c r="J27">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
@@ -1941,28 +1945,31 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>68</v>
+      </c>
+      <c r="E28" s="1">
+        <v>41830</v>
       </c>
       <c r="F28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I28">
         <v>6</v>
       </c>
       <c r="J28">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
@@ -1979,28 +1986,28 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>700</v>
+        <v>640</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H29" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J29">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
@@ -2009,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O29" t="b">
         <v>0</v>
@@ -2017,39 +2024,77 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
+        <v>700</v>
+      </c>
+      <c r="B30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" t="s">
+        <v>129</v>
+      </c>
+      <c r="I30">
+        <v>7</v>
+      </c>
+      <c r="J30">
+        <v>22</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>7</v>
+      </c>
+      <c r="O30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>800</v>
       </c>
-      <c r="B30" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" t="s">
-        <v>126</v>
-      </c>
-      <c r="H30" t="s">
-        <v>127</v>
-      </c>
-      <c r="I30">
+      <c r="B31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H31" t="s">
+        <v>132</v>
+      </c>
+      <c r="I31">
         <v>8</v>
       </c>
-      <c r="J30">
+      <c r="J31">
         <v>25</v>
       </c>
-      <c r="K30" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" t="b">
-        <v>0</v>
-      </c>
-      <c r="M30">
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31">
         <v>8</v>
       </c>
-      <c r="O30" t="b">
+      <c r="O31" t="b">
         <v>0</v>
       </c>
     </row>
